--- a/Design/Excel/Game/Datas/Sound.xlsx
+++ b/Design/Excel/Game/Datas/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -24,6 +24,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>CSName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>AssetName</t>
   </si>
   <si>
@@ -39,6 +45,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string&amp;group=e</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -51,7 +60,10 @@
     <t>声音编号</t>
   </si>
   <si>
-    <t>策划备注</t>
+    <t>代码名（程序填）</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>资源名称</t>
@@ -63,6 +75,9 @@
     <t>音量（0~1）</t>
   </si>
   <si>
+    <t>Click</t>
+  </si>
+  <si>
     <t>点击音效</t>
   </si>
   <si>
@@ -72,18 +87,27 @@
     <t>音乐编号</t>
   </si>
   <si>
+    <t>BgMusic</t>
+  </si>
+  <si>
     <t>音乐</t>
   </si>
   <si>
     <t>music_background</t>
   </si>
   <si>
+    <t>FightMusic</t>
+  </si>
+  <si>
     <t>战斗音乐</t>
   </si>
   <si>
     <t>music_background_fight</t>
   </si>
   <si>
+    <t>SoundGroupName</t>
+  </si>
+  <si>
     <t>Loop</t>
   </si>
   <si>
@@ -96,6 +120,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>声音组名称</t>
+  </si>
+  <si>
     <t>是否循环</t>
   </si>
   <si>
@@ -105,10 +132,16 @@
     <t>声音最大距离</t>
   </si>
   <si>
+    <t>JellyDestroy</t>
+  </si>
+  <si>
     <t>方块消除</t>
   </si>
   <si>
     <t>Jelly_destroy_02</t>
+  </si>
+  <si>
+    <t>Sound.Default</t>
   </si>
 </sst>
 </file>
@@ -121,19 +154,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -586,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,33 +625,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,109 +664,114 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1085,93 +1120,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="51.125" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="2:6">
-      <c r="B4">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:7">
+      <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1186,89 +1241,170 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="J25:K25"/>
+      <selection activeCell="C1" sqref="C1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="64.625" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1">
         <v>2001</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1279,161 +1415,206 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1"/>
+    <col min="10" max="10" width="23.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1">
         <v>3000</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
+      <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="2"/>
+    <row r="27" spans="4:6">
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="4:6">
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="4:6">
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="4:6">
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="4:6">
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="4:6">
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="4:6">
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="4:6">
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="4:6">
       <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/Sound.xlsx
+++ b/Design/Excel/Game/Datas/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -75,6 +75,15 @@
     <t>音量（0~1）</t>
   </si>
   <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>选择音效</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
     <t>Click</t>
   </si>
   <si>
@@ -87,22 +96,31 @@
     <t>音乐编号</t>
   </si>
   <si>
-    <t>BgMusic</t>
-  </si>
-  <si>
-    <t>音乐</t>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>菜单音乐</t>
+  </si>
+  <si>
+    <t>music_menu</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>战斗音乐</t>
   </si>
   <si>
     <t>music_background</t>
   </si>
   <si>
-    <t>FightMusic</t>
-  </si>
-  <si>
-    <t>战斗音乐</t>
-  </si>
-  <si>
-    <t>music_background_fight</t>
+    <t>About</t>
+  </si>
+  <si>
+    <t>关于音乐</t>
+  </si>
+  <si>
+    <t>music_about</t>
   </si>
   <si>
     <t>SoundGroupName</t>
@@ -132,16 +150,52 @@
     <t>声音最大距离</t>
   </si>
   <si>
-    <t>JellyDestroy</t>
-  </si>
-  <si>
-    <t>方块消除</t>
-  </si>
-  <si>
-    <t>Jelly_destroy_02</t>
+    <t>WeaponPlayer</t>
+  </si>
+  <si>
+    <t>玩家子弹</t>
+  </si>
+  <si>
+    <t>weapon_player</t>
   </si>
   <si>
     <t>Sound.Default</t>
+  </si>
+  <si>
+    <t>WeaponEnemy</t>
+  </si>
+  <si>
+    <t>敌人子弹</t>
+  </si>
+  <si>
+    <t>weapon_enemy</t>
+  </si>
+  <si>
+    <t>ExplosionPlayer</t>
+  </si>
+  <si>
+    <t>玩家爆炸</t>
+  </si>
+  <si>
+    <t>explosion_player</t>
+  </si>
+  <si>
+    <t>ExplosionEnemy</t>
+  </si>
+  <si>
+    <t>敌人爆炸</t>
+  </si>
+  <si>
+    <t>explosion_enemy</t>
+  </si>
+  <si>
+    <t>ExplosionAsteroid</t>
+  </si>
+  <si>
+    <t>小行星爆炸</t>
+  </si>
+  <si>
+    <t>explosion_asteroid</t>
   </si>
 </sst>
 </file>
@@ -755,10 +809,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,7 +826,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1161,8 +1221,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1211,24 +1270,50 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:7">
-      <c r="B4" s="1">
-        <v>1000</v>
+      <c r="B4" s="2">
+        <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="2"/>
     </row>
     <row r="30" ht="12.95" customHeight="1"/>
   </sheetData>
@@ -1241,170 +1326,158 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="1"/>
+    <col min="1" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="14.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3">
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,14 +1490,14 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="6" width="22.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
@@ -1451,22 +1524,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1492,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1521,100 +1594,228 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="1">
-        <v>3000</v>
+      <c r="B4" s="2">
+        <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="4:6">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="4:6">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="4:6">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="4:6">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="4:6">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/Sound.xlsx
+++ b/Design/Excel/Game/Datas/Sound.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
     <sheet name="Music" sheetId="2" r:id="rId2"/>
     <sheet name="Sound" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -201,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -217,34 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -261,6 +246,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -270,41 +294,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,7 +347,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,49 +383,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,121 +521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,21 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,6 +606,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,152 +677,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,59 +838,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1180,13 +1187,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="3" width="19.375" style="1" customWidth="1"/>
@@ -1194,12 +1201,10 @@
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1226,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1309,13 +1313,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="30" ht="12.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1326,158 +1323,132 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="14.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="4"/>
+    <col min="1" max="2" width="11" style="3"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,13 +1459,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
@@ -1772,51 +1743,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
